--- a/12s_16s_18s_CO1_ITS/16s_18s_ITS_db.xlsx
+++ b/12s_16s_18s_CO1_ITS/16s_18s_ITS_db.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yfan/Desktop/bio-apple/eDNA/12s_16s_18s_CO1_ITS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0043800A-0DF1-8340-9E6D-4701074F6C10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0915BD0B-869C-9149-B651-7F03FD1C8118}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="16660" xr2:uid="{09F187BE-8A86-4B47-81CB-5D888BF8643C}"/>
+    <workbookView xWindow="13060" yWindow="2900" windowWidth="29400" windowHeight="16660" xr2:uid="{09F187BE-8A86-4B47-81CB-5D888BF8643C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>Database</t>
   </si>
@@ -89,10 +89,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Silva 138</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://docs.qiime2.org/2024.10/data-resources/</t>
   </si>
   <si>
@@ -108,25 +104,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Eukaryote CO1 Reference Set For The Identification of DNA Metabarcodes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/terrimporter/CO1Classifier/releases</t>
-  </si>
-  <si>
     <t>12S rRNA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Mitochondrial Genome Database of Fish</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://mitofish.aori.u-tokyo.ac.jp</t>
-  </si>
-  <si>
-    <t>Version:V4.09 Update:2025-02-08</t>
+    <t>https://reference-midori.info/download.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MIDORI Reference 2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -179,7 +165,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -187,6 +173,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -526,7 +515,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -572,7 +561,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="1">
-        <v>2024.09</v>
+        <v>2024</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>6</v>
@@ -581,10 +570,10 @@
     <row r="4" spans="1:4">
       <c r="A4" s="2"/>
       <c r="B4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" s="1">
-        <v>2025.02</v>
+        <v>2025</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>7</v>
@@ -609,22 +598,22 @@
         <v>14</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1">
+        <v>138.19999999999999</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2"/>
       <c r="B7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" s="1">
-        <v>2025.04</v>
+        <v>2025</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>7</v>
@@ -632,38 +621,38 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="3">
+        <v>45640</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="C8" s="1">
-        <v>2023.05</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>24</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="5">
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A6:A7"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="B8:B9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D8" r:id="rId1" xr:uid="{5C156543-B8BA-FE4D-9A3A-BFDE4C8B5F0B}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/12s_16s_18s_CO1_ITS/16s_18s_ITS_db.xlsx
+++ b/12s_16s_18s_CO1_ITS/16s_18s_ITS_db.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yfan/Desktop/bio-apple/eDNA/12s_16s_18s_CO1_ITS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0915BD0B-869C-9149-B651-7F03FD1C8118}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0E97B94-39F8-274C-AD5D-FC3DF152A7A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13060" yWindow="2900" windowWidth="29400" windowHeight="16660" xr2:uid="{09F187BE-8A86-4B47-81CB-5D888BF8643C}"/>
+    <workbookView xWindow="9000" yWindow="2900" windowWidth="29400" windowHeight="16660" xr2:uid="{09F187BE-8A86-4B47-81CB-5D888BF8643C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -515,7 +515,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>

--- a/12s_16s_18s_CO1_ITS/16s_18s_ITS_db.xlsx
+++ b/12s_16s_18s_CO1_ITS/16s_18s_ITS_db.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yfan/Desktop/bio-apple/eDNA/12s_16s_18s_CO1_ITS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0E97B94-39F8-274C-AD5D-FC3DF152A7A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8159EDD-1E92-E94F-A355-C7461679D869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9000" yWindow="2900" windowWidth="29400" windowHeight="16660" xr2:uid="{09F187BE-8A86-4B47-81CB-5D888BF8643C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t>Database</t>
   </si>
@@ -114,13 +114,23 @@
   <si>
     <t>MIDORI Reference 2</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rbcL </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t> DB4Q2</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.6084/m9.figshare.17040680</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -140,6 +150,12 @@
       <sz val="16"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF333333"/>
+      <name val="Georgia"/>
       <family val="1"/>
     </font>
   </fonts>
@@ -165,17 +181,23 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -512,10 +534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB3F7C03-2F00-454E-93CD-FEA612B52C47}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -542,7 +564,7 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -556,7 +578,7 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="2"/>
+      <c r="A3" s="3"/>
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
@@ -568,7 +590,7 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="2"/>
+      <c r="A4" s="3"/>
       <c r="B4" s="1" t="s">
         <v>17</v>
       </c>
@@ -594,7 +616,7 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -608,7 +630,7 @@
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="2"/>
+      <c r="A7" s="3"/>
       <c r="B7" s="1" t="s">
         <v>16</v>
       </c>
@@ -623,13 +645,13 @@
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="4">
         <v>45640</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -637,9 +659,23 @@
       <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="2"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="1:4" ht="23">
+      <c r="A10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="2">
+        <v>45609</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -652,6 +688,7 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D8" r:id="rId1" xr:uid="{5C156543-B8BA-FE4D-9A3A-BFDE4C8B5F0B}"/>
+    <hyperlink ref="A10" r:id="rId2" display="https://doi.org/10.6084/m9.figshare.17040680" xr:uid="{7A7F7BA9-7A9B-7547-B1D4-E83B210D4295}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
